--- a/benchmarks/gradient_constant_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_constant_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>60461106081.38357</v>
+        <v>42708765653.27307</v>
       </c>
       <c r="I2">
-        <v>3119.504493402676</v>
+        <v>15441.12221528891</v>
       </c>
       <c r="J2">
-        <v>57218553560.46108</v>
+        <v>26293725550.8055</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_constant_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_constant_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>42708765653.27307</v>
+        <v>46526899600.87028</v>
       </c>
       <c r="I2">
-        <v>15441.12221528891</v>
+        <v>10108.65728407852</v>
       </c>
       <c r="J2">
-        <v>26293725550.8055</v>
+        <v>36051414850.8684</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_constant_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_constant_simulations-90.0-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>heuristic</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +450,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -462,13 +462,45 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>46526899600.87028</v>
+        <v>60865269290.37937</v>
       </c>
       <c r="I2">
-        <v>10108.65728407852</v>
+        <v>95292.65759120186</v>
       </c>
       <c r="J2">
-        <v>36051414850.8684</v>
+        <v>53321451735.06924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>43112810491.99238</v>
+      </c>
+      <c r="I3">
+        <v>14752.06934524985</v>
+      </c>
+      <c r="J3">
+        <v>27449044711.93054</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_constant_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_constant_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>60865269290.37937</v>
+        <v>45878900163.07945</v>
       </c>
       <c r="I2">
-        <v>95292.65759120186</v>
+        <v>14226.3362249763</v>
       </c>
       <c r="J2">
-        <v>53321451735.06924</v>
+        <v>41185086175.83578</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,13 +494,13 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>43112810491.99238</v>
+        <v>44283791622.12435</v>
       </c>
       <c r="I3">
-        <v>14752.06934524985</v>
+        <v>11550.1737967248</v>
       </c>
       <c r="J3">
-        <v>27449044711.93054</v>
+        <v>28922772470.36137</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_constant_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_constant_simulations-90.0-days.xlsx
@@ -462,10 +462,10 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>45878900163.07945</v>
+        <v>45878900163.07956</v>
       </c>
       <c r="I2">
-        <v>14226.3362249763</v>
+        <v>14226.33622497664</v>
       </c>
       <c r="J2">
         <v>41185086175.83578</v>
@@ -494,13 +494,13 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>44283791622.12435</v>
+        <v>44428420544.91395</v>
       </c>
       <c r="I3">
-        <v>11550.1737967248</v>
+        <v>9226.08228804869</v>
       </c>
       <c r="J3">
-        <v>28922772470.36137</v>
+        <v>32158299833.60099</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_constant_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_constant_simulations-90.0-days.xlsx
@@ -14,39 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>heuristic</t>
-  </si>
-  <si>
-    <t>delta_schooling</t>
-  </si>
-  <si>
-    <t>xi</t>
-  </si>
-  <si>
-    <t>icus</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>economics_value</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>reward</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>lockdown_heuristic</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>experiment_params</t>
+  </si>
+  <si>
+    <t>testing_heuristic</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>a_tests</t>
+  </si>
+  <si>
+    <t>m_tests</t>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
   <si>
     <t>constant_gradient</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>{'delta_schooling': 0.5, 'xi': 0, 'icus': 3000, 'n_a_tests': 0, 'n_m_tests': 0, 'start_day': 60, 'T': 90, 'eta': 0.0}</t>
+  </si>
+  <si>
+    <t>{'delta_schooling': 0.5, 'xi': 1000000.0, 'icus': 3000, 'n_a_tests': 0, 'n_m_tests': 0, 'start_day': 60, 'T': 90, 'eta': 0.0}</t>
+  </si>
+  <si>
     <t>homogeneous</t>
+  </si>
+  <si>
+    <t>{'economics_value': 46004238983.81645, 'deaths': 13117.991976603387, 'reward': 41676110275.86206}</t>
+  </si>
+  <si>
+    <t>{'economics_value': 44428420544.913956, 'deaths': 9226.082288048703, 'reward': 32158299833.60099}</t>
+  </si>
+  <si>
+    <t>[{'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.5670096815686494, 'transport': 0.0, 'work': 1.0}}]</t>
+  </si>
+  <si>
+    <t>[{'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.0712942241822748, 'transport': 0.0, 'work': 1.0}}]</t>
+  </si>
+  <si>
+    <t>[{'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}]</t>
+  </si>
+  <si>
+    <t>constant_gradient/xi-0_icus-3000_testing-homogeneous_natests-0_nmtests-0_T-90_startday-60_groups-one_dschool-0.500000_eta-0.000000</t>
+  </si>
+  <si>
+    <t>constant_gradient/xi-1000000_icus-3000_testing-homogeneous_natests-0_nmtests-0_T-90_startday-60_groups-one_dschool-0.500000_eta-0.000000</t>
   </si>
 </sst>
 </file>
@@ -446,29 +476,29 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>3000</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>45878900163.07956</v>
-      </c>
-      <c r="I2">
-        <v>14226.33622497664</v>
-      </c>
-      <c r="J2">
-        <v>41185086175.83578</v>
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -478,29 +508,29 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>44428420544.91395</v>
-      </c>
-      <c r="I3">
-        <v>9226.08228804869</v>
-      </c>
-      <c r="J3">
-        <v>32158299833.60099</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
